--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_298.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_298.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d78570-Reviews-Good_Nite_Inn_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>874</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Good-Nite-Inn-Buena-Park.h21203.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_298.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_298.xlsx
@@ -12282,7 +12282,7 @@
         <v>27255</v>
       </c>
       <c r="B2" t="n">
-        <v>149291</v>
+        <v>180764</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12343,7 +12343,7 @@
         <v>27255</v>
       </c>
       <c r="B3" t="n">
-        <v>149292</v>
+        <v>180765</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -12404,7 +12404,7 @@
         <v>27255</v>
       </c>
       <c r="B4" t="n">
-        <v>149293</v>
+        <v>180766</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -12465,7 +12465,7 @@
         <v>27255</v>
       </c>
       <c r="B5" t="n">
-        <v>149294</v>
+        <v>180767</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -12530,7 +12530,7 @@
         <v>27255</v>
       </c>
       <c r="B6" t="n">
-        <v>149295</v>
+        <v>180768</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -12595,7 +12595,7 @@
         <v>27255</v>
       </c>
       <c r="B7" t="n">
-        <v>149296</v>
+        <v>180769</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -12656,7 +12656,7 @@
         <v>27255</v>
       </c>
       <c r="B8" t="n">
-        <v>149297</v>
+        <v>180770</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -12721,7 +12721,7 @@
         <v>27255</v>
       </c>
       <c r="B9" t="n">
-        <v>149298</v>
+        <v>180771</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
@@ -12792,7 +12792,7 @@
         <v>27255</v>
       </c>
       <c r="B10" t="n">
-        <v>149299</v>
+        <v>180772</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -12928,7 +12928,7 @@
         <v>27255</v>
       </c>
       <c r="B12" t="n">
-        <v>149300</v>
+        <v>180773</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -12993,7 +12993,7 @@
         <v>27255</v>
       </c>
       <c r="B13" t="n">
-        <v>149301</v>
+        <v>180774</v>
       </c>
       <c r="C13" t="s">
         <v>130</v>
@@ -13058,7 +13058,7 @@
         <v>27255</v>
       </c>
       <c r="B14" t="n">
-        <v>149302</v>
+        <v>180775</v>
       </c>
       <c r="C14" t="s">
         <v>136</v>
@@ -13123,7 +13123,7 @@
         <v>27255</v>
       </c>
       <c r="B15" t="n">
-        <v>149303</v>
+        <v>180776</v>
       </c>
       <c r="C15" t="s">
         <v>146</v>
@@ -13188,7 +13188,7 @@
         <v>27255</v>
       </c>
       <c r="B16" t="n">
-        <v>149304</v>
+        <v>180777</v>
       </c>
       <c r="C16" t="s">
         <v>155</v>
@@ -13253,7 +13253,7 @@
         <v>27255</v>
       </c>
       <c r="B17" t="n">
-        <v>149305</v>
+        <v>180778</v>
       </c>
       <c r="C17" t="s">
         <v>163</v>
@@ -13318,7 +13318,7 @@
         <v>27255</v>
       </c>
       <c r="B18" t="n">
-        <v>149306</v>
+        <v>180779</v>
       </c>
       <c r="C18" t="s">
         <v>172</v>
@@ -13513,7 +13513,7 @@
         <v>27255</v>
       </c>
       <c r="B21" t="n">
-        <v>149307</v>
+        <v>180780</v>
       </c>
       <c r="C21" t="s">
         <v>198</v>
@@ -13578,7 +13578,7 @@
         <v>27255</v>
       </c>
       <c r="B22" t="n">
-        <v>149308</v>
+        <v>180781</v>
       </c>
       <c r="C22" t="s">
         <v>206</v>
@@ -13643,7 +13643,7 @@
         <v>27255</v>
       </c>
       <c r="B23" t="n">
-        <v>149309</v>
+        <v>180782</v>
       </c>
       <c r="C23" t="s">
         <v>216</v>
@@ -13779,7 +13779,7 @@
         <v>27255</v>
       </c>
       <c r="B25" t="n">
-        <v>149310</v>
+        <v>180783</v>
       </c>
       <c r="C25" t="s">
         <v>234</v>
@@ -13844,7 +13844,7 @@
         <v>27255</v>
       </c>
       <c r="B26" t="n">
-        <v>149311</v>
+        <v>180784</v>
       </c>
       <c r="C26" t="s">
         <v>243</v>
@@ -13909,7 +13909,7 @@
         <v>27255</v>
       </c>
       <c r="B27" t="n">
-        <v>149312</v>
+        <v>180785</v>
       </c>
       <c r="C27" t="s">
         <v>253</v>
@@ -13974,7 +13974,7 @@
         <v>27255</v>
       </c>
       <c r="B28" t="n">
-        <v>149313</v>
+        <v>180786</v>
       </c>
       <c r="C28" t="s">
         <v>262</v>
@@ -14039,7 +14039,7 @@
         <v>27255</v>
       </c>
       <c r="B29" t="n">
-        <v>149314</v>
+        <v>180787</v>
       </c>
       <c r="C29" t="s">
         <v>271</v>
@@ -14104,7 +14104,7 @@
         <v>27255</v>
       </c>
       <c r="B30" t="n">
-        <v>149315</v>
+        <v>180788</v>
       </c>
       <c r="C30" t="s">
         <v>280</v>
@@ -14234,7 +14234,7 @@
         <v>27255</v>
       </c>
       <c r="B32" t="n">
-        <v>149316</v>
+        <v>180789</v>
       </c>
       <c r="C32" t="s">
         <v>295</v>
@@ -14299,7 +14299,7 @@
         <v>27255</v>
       </c>
       <c r="B33" t="n">
-        <v>149317</v>
+        <v>180790</v>
       </c>
       <c r="C33" t="s">
         <v>304</v>
@@ -14364,7 +14364,7 @@
         <v>27255</v>
       </c>
       <c r="B34" t="n">
-        <v>149318</v>
+        <v>180791</v>
       </c>
       <c r="C34" t="s">
         <v>313</v>
@@ -14435,7 +14435,7 @@
         <v>27255</v>
       </c>
       <c r="B35" t="n">
-        <v>149319</v>
+        <v>149301</v>
       </c>
       <c r="C35" t="s">
         <v>319</v>
@@ -14500,7 +14500,7 @@
         <v>27255</v>
       </c>
       <c r="B36" t="n">
-        <v>149320</v>
+        <v>180792</v>
       </c>
       <c r="C36" t="s">
         <v>328</v>
@@ -14630,7 +14630,7 @@
         <v>27255</v>
       </c>
       <c r="B38" t="n">
-        <v>149321</v>
+        <v>180793</v>
       </c>
       <c r="C38" t="s">
         <v>346</v>
@@ -14695,7 +14695,7 @@
         <v>27255</v>
       </c>
       <c r="B39" t="n">
-        <v>149322</v>
+        <v>180794</v>
       </c>
       <c r="C39" t="s">
         <v>355</v>
@@ -14760,7 +14760,7 @@
         <v>27255</v>
       </c>
       <c r="B40" t="n">
-        <v>149323</v>
+        <v>149308</v>
       </c>
       <c r="C40" t="s">
         <v>364</v>
@@ -14825,7 +14825,7 @@
         <v>27255</v>
       </c>
       <c r="B41" t="n">
-        <v>149324</v>
+        <v>180795</v>
       </c>
       <c r="C41" t="s">
         <v>374</v>
@@ -14894,7 +14894,7 @@
         <v>27255</v>
       </c>
       <c r="B42" t="n">
-        <v>149325</v>
+        <v>180796</v>
       </c>
       <c r="C42" t="s">
         <v>383</v>
@@ -14959,7 +14959,7 @@
         <v>27255</v>
       </c>
       <c r="B43" t="n">
-        <v>149326</v>
+        <v>180797</v>
       </c>
       <c r="C43" t="s">
         <v>389</v>
@@ -15024,7 +15024,7 @@
         <v>27255</v>
       </c>
       <c r="B44" t="n">
-        <v>149327</v>
+        <v>180798</v>
       </c>
       <c r="C44" t="s">
         <v>399</v>
@@ -15288,7 +15288,7 @@
         <v>27255</v>
       </c>
       <c r="B48" t="n">
-        <v>149328</v>
+        <v>180799</v>
       </c>
       <c r="C48" t="s">
         <v>435</v>
@@ -15359,7 +15359,7 @@
         <v>27255</v>
       </c>
       <c r="B49" t="n">
-        <v>149329</v>
+        <v>149332</v>
       </c>
       <c r="C49" t="s">
         <v>444</v>
@@ -15424,7 +15424,7 @@
         <v>27255</v>
       </c>
       <c r="B50" t="n">
-        <v>149330</v>
+        <v>180800</v>
       </c>
       <c r="C50" t="s">
         <v>451</v>
@@ -15489,7 +15489,7 @@
         <v>27255</v>
       </c>
       <c r="B51" t="n">
-        <v>149331</v>
+        <v>180801</v>
       </c>
       <c r="C51" t="s">
         <v>458</v>
@@ -15554,7 +15554,7 @@
         <v>27255</v>
       </c>
       <c r="B52" t="n">
-        <v>149332</v>
+        <v>180802</v>
       </c>
       <c r="C52" t="s">
         <v>466</v>
@@ -15688,7 +15688,7 @@
         <v>27255</v>
       </c>
       <c r="B54" t="n">
-        <v>149333</v>
+        <v>180803</v>
       </c>
       <c r="C54" t="s">
         <v>482</v>
@@ -15753,7 +15753,7 @@
         <v>27255</v>
       </c>
       <c r="B55" t="n">
-        <v>149334</v>
+        <v>180804</v>
       </c>
       <c r="C55" t="s">
         <v>489</v>
@@ -15883,7 +15883,7 @@
         <v>27255</v>
       </c>
       <c r="B57" t="n">
-        <v>149335</v>
+        <v>180805</v>
       </c>
       <c r="C57" t="s">
         <v>504</v>
@@ -15948,7 +15948,7 @@
         <v>27255</v>
       </c>
       <c r="B58" t="n">
-        <v>149336</v>
+        <v>180806</v>
       </c>
       <c r="C58" t="s">
         <v>513</v>
@@ -16013,7 +16013,7 @@
         <v>27255</v>
       </c>
       <c r="B59" t="n">
-        <v>149337</v>
+        <v>180807</v>
       </c>
       <c r="C59" t="s">
         <v>519</v>
@@ -16078,7 +16078,7 @@
         <v>27255</v>
       </c>
       <c r="B60" t="n">
-        <v>149338</v>
+        <v>180808</v>
       </c>
       <c r="C60" t="s">
         <v>528</v>
@@ -16143,7 +16143,7 @@
         <v>27255</v>
       </c>
       <c r="B61" t="n">
-        <v>149339</v>
+        <v>180809</v>
       </c>
       <c r="C61" t="s">
         <v>538</v>
@@ -16208,7 +16208,7 @@
         <v>27255</v>
       </c>
       <c r="B62" t="n">
-        <v>149340</v>
+        <v>180810</v>
       </c>
       <c r="C62" t="s">
         <v>544</v>
@@ -16277,7 +16277,7 @@
         <v>27255</v>
       </c>
       <c r="B63" t="n">
-        <v>149341</v>
+        <v>180811</v>
       </c>
       <c r="C63" t="s">
         <v>553</v>
@@ -16342,7 +16342,7 @@
         <v>27255</v>
       </c>
       <c r="B64" t="n">
-        <v>149318</v>
+        <v>149301</v>
       </c>
       <c r="C64" t="s">
         <v>319</v>
@@ -16407,7 +16407,7 @@
         <v>27255</v>
       </c>
       <c r="B65" t="n">
-        <v>149342</v>
+        <v>180812</v>
       </c>
       <c r="C65" t="s">
         <v>567</v>
@@ -16472,7 +16472,7 @@
         <v>27255</v>
       </c>
       <c r="B66" t="n">
-        <v>149343</v>
+        <v>180813</v>
       </c>
       <c r="C66" t="s">
         <v>576</v>
@@ -16732,7 +16732,7 @@
         <v>27255</v>
       </c>
       <c r="B70" t="n">
-        <v>149344</v>
+        <v>180814</v>
       </c>
       <c r="C70" t="s">
         <v>606</v>
@@ -16868,7 +16868,7 @@
         <v>27255</v>
       </c>
       <c r="B72" t="n">
-        <v>149345</v>
+        <v>180815</v>
       </c>
       <c r="C72" t="s">
         <v>622</v>
@@ -16998,7 +16998,7 @@
         <v>27255</v>
       </c>
       <c r="B74" t="n">
-        <v>149346</v>
+        <v>180816</v>
       </c>
       <c r="C74" t="s">
         <v>641</v>
@@ -17063,7 +17063,7 @@
         <v>27255</v>
       </c>
       <c r="B75" t="n">
-        <v>149347</v>
+        <v>180817</v>
       </c>
       <c r="C75" t="s">
         <v>650</v>
@@ -17128,7 +17128,7 @@
         <v>27255</v>
       </c>
       <c r="B76" t="n">
-        <v>149348</v>
+        <v>180818</v>
       </c>
       <c r="C76" t="s">
         <v>657</v>
@@ -17193,7 +17193,7 @@
         <v>27255</v>
       </c>
       <c r="B77" t="n">
-        <v>149349</v>
+        <v>180819</v>
       </c>
       <c r="C77" t="s">
         <v>666</v>
@@ -17323,7 +17323,7 @@
         <v>27255</v>
       </c>
       <c r="B79" t="n">
-        <v>149350</v>
+        <v>180820</v>
       </c>
       <c r="C79" t="s">
         <v>682</v>
@@ -17388,7 +17388,7 @@
         <v>27255</v>
       </c>
       <c r="B80" t="n">
-        <v>149351</v>
+        <v>180821</v>
       </c>
       <c r="C80" t="s">
         <v>691</v>
@@ -17453,7 +17453,7 @@
         <v>27255</v>
       </c>
       <c r="B81" t="n">
-        <v>149322</v>
+        <v>149308</v>
       </c>
       <c r="C81" t="s">
         <v>364</v>
@@ -17518,7 +17518,7 @@
         <v>27255</v>
       </c>
       <c r="B82" t="n">
-        <v>149352</v>
+        <v>180822</v>
       </c>
       <c r="C82" t="s">
         <v>706</v>
@@ -17583,7 +17583,7 @@
         <v>27255</v>
       </c>
       <c r="B83" t="n">
-        <v>149353</v>
+        <v>180823</v>
       </c>
       <c r="C83" t="s">
         <v>715</v>
@@ -17717,7 +17717,7 @@
         <v>27255</v>
       </c>
       <c r="B85" t="n">
-        <v>149354</v>
+        <v>180824</v>
       </c>
       <c r="C85" t="s">
         <v>732</v>
@@ -17786,7 +17786,7 @@
         <v>27255</v>
       </c>
       <c r="B86" t="n">
-        <v>149355</v>
+        <v>180825</v>
       </c>
       <c r="C86" t="s">
         <v>739</v>
@@ -17851,7 +17851,7 @@
         <v>27255</v>
       </c>
       <c r="B87" t="n">
-        <v>149356</v>
+        <v>180826</v>
       </c>
       <c r="C87" t="s">
         <v>748</v>
@@ -17916,7 +17916,7 @@
         <v>27255</v>
       </c>
       <c r="B88" t="n">
-        <v>149357</v>
+        <v>180827</v>
       </c>
       <c r="C88" t="s">
         <v>753</v>
@@ -17981,7 +17981,7 @@
         <v>27255</v>
       </c>
       <c r="B89" t="n">
-        <v>149358</v>
+        <v>180828</v>
       </c>
       <c r="C89" t="s">
         <v>762</v>
@@ -18111,7 +18111,7 @@
         <v>27255</v>
       </c>
       <c r="B91" t="n">
-        <v>149359</v>
+        <v>180829</v>
       </c>
       <c r="C91" t="s">
         <v>780</v>
@@ -18176,7 +18176,7 @@
         <v>27255</v>
       </c>
       <c r="B92" t="n">
-        <v>149360</v>
+        <v>180830</v>
       </c>
       <c r="C92" t="s">
         <v>788</v>
@@ -18247,7 +18247,7 @@
         <v>27255</v>
       </c>
       <c r="B93" t="n">
-        <v>149361</v>
+        <v>180831</v>
       </c>
       <c r="C93" t="s">
         <v>798</v>
@@ -18312,7 +18312,7 @@
         <v>27255</v>
       </c>
       <c r="B94" t="n">
-        <v>149362</v>
+        <v>180832</v>
       </c>
       <c r="C94" t="s">
         <v>807</v>
@@ -18448,7 +18448,7 @@
         <v>27255</v>
       </c>
       <c r="B96" t="n">
-        <v>149363</v>
+        <v>180833</v>
       </c>
       <c r="C96" t="s">
         <v>822</v>
@@ -18513,7 +18513,7 @@
         <v>27255</v>
       </c>
       <c r="B97" t="n">
-        <v>149364</v>
+        <v>180834</v>
       </c>
       <c r="C97" t="s">
         <v>831</v>
@@ -18578,7 +18578,7 @@
         <v>27255</v>
       </c>
       <c r="B98" t="n">
-        <v>149365</v>
+        <v>180835</v>
       </c>
       <c r="C98" t="s">
         <v>837</v>
@@ -18708,7 +18708,7 @@
         <v>27255</v>
       </c>
       <c r="B100" t="n">
-        <v>149366</v>
+        <v>180836</v>
       </c>
       <c r="C100" t="s">
         <v>855</v>
@@ -18779,7 +18779,7 @@
         <v>27255</v>
       </c>
       <c r="B101" t="n">
-        <v>149367</v>
+        <v>180837</v>
       </c>
       <c r="C101" t="s">
         <v>863</v>
@@ -18844,7 +18844,7 @@
         <v>27255</v>
       </c>
       <c r="B102" t="n">
-        <v>149368</v>
+        <v>180838</v>
       </c>
       <c r="C102" t="s">
         <v>872</v>
@@ -18909,7 +18909,7 @@
         <v>27255</v>
       </c>
       <c r="B103" t="n">
-        <v>149369</v>
+        <v>180839</v>
       </c>
       <c r="C103" t="s">
         <v>881</v>
@@ -19045,7 +19045,7 @@
         <v>27255</v>
       </c>
       <c r="B105" t="n">
-        <v>149370</v>
+        <v>180840</v>
       </c>
       <c r="C105" t="s">
         <v>899</v>
@@ -19110,7 +19110,7 @@
         <v>27255</v>
       </c>
       <c r="B106" t="n">
-        <v>149371</v>
+        <v>180841</v>
       </c>
       <c r="C106" t="s">
         <v>906</v>
@@ -19171,7 +19171,7 @@
         <v>27255</v>
       </c>
       <c r="B107" t="n">
-        <v>149372</v>
+        <v>180842</v>
       </c>
       <c r="C107" t="s">
         <v>915</v>
@@ -19236,7 +19236,7 @@
         <v>27255</v>
       </c>
       <c r="B108" t="n">
-        <v>149373</v>
+        <v>180843</v>
       </c>
       <c r="C108" t="s">
         <v>924</v>
@@ -19301,7 +19301,7 @@
         <v>27255</v>
       </c>
       <c r="B109" t="n">
-        <v>149374</v>
+        <v>180844</v>
       </c>
       <c r="C109" t="s">
         <v>930</v>
@@ -19366,7 +19366,7 @@
         <v>27255</v>
       </c>
       <c r="B110" t="n">
-        <v>149375</v>
+        <v>180845</v>
       </c>
       <c r="C110" t="s">
         <v>937</v>
@@ -19500,7 +19500,7 @@
         <v>27255</v>
       </c>
       <c r="B112" t="n">
-        <v>149376</v>
+        <v>180846</v>
       </c>
       <c r="C112" t="s">
         <v>953</v>
@@ -19630,7 +19630,7 @@
         <v>27255</v>
       </c>
       <c r="B114" t="n">
-        <v>149377</v>
+        <v>180847</v>
       </c>
       <c r="C114" t="s">
         <v>971</v>
@@ -19695,7 +19695,7 @@
         <v>27255</v>
       </c>
       <c r="B115" t="n">
-        <v>149378</v>
+        <v>180848</v>
       </c>
       <c r="C115" t="s">
         <v>977</v>
@@ -19760,7 +19760,7 @@
         <v>27255</v>
       </c>
       <c r="B116" t="n">
-        <v>149379</v>
+        <v>180849</v>
       </c>
       <c r="C116" t="s">
         <v>982</v>
@@ -19825,7 +19825,7 @@
         <v>27255</v>
       </c>
       <c r="B117" t="n">
-        <v>149380</v>
+        <v>180850</v>
       </c>
       <c r="C117" t="s">
         <v>991</v>
@@ -19955,7 +19955,7 @@
         <v>27255</v>
       </c>
       <c r="B119" t="n">
-        <v>149381</v>
+        <v>180851</v>
       </c>
       <c r="C119" t="s">
         <v>1003</v>
@@ -20020,7 +20020,7 @@
         <v>27255</v>
       </c>
       <c r="B120" t="n">
-        <v>149382</v>
+        <v>180852</v>
       </c>
       <c r="C120" t="s">
         <v>1013</v>
@@ -20156,7 +20156,7 @@
         <v>27255</v>
       </c>
       <c r="B122" t="n">
-        <v>149383</v>
+        <v>180853</v>
       </c>
       <c r="C122" t="s">
         <v>1029</v>
@@ -20221,7 +20221,7 @@
         <v>27255</v>
       </c>
       <c r="B123" t="n">
-        <v>149384</v>
+        <v>180854</v>
       </c>
       <c r="C123" t="s">
         <v>1038</v>
@@ -20286,7 +20286,7 @@
         <v>27255</v>
       </c>
       <c r="B124" t="n">
-        <v>149385</v>
+        <v>180855</v>
       </c>
       <c r="C124" t="s">
         <v>1044</v>
@@ -20546,7 +20546,7 @@
         <v>27255</v>
       </c>
       <c r="B128" t="n">
-        <v>149386</v>
+        <v>180856</v>
       </c>
       <c r="C128" t="s">
         <v>1076</v>
@@ -20611,7 +20611,7 @@
         <v>27255</v>
       </c>
       <c r="B129" t="n">
-        <v>149387</v>
+        <v>180857</v>
       </c>
       <c r="C129" t="s">
         <v>1085</v>
@@ -20676,7 +20676,7 @@
         <v>27255</v>
       </c>
       <c r="B130" t="n">
-        <v>149388</v>
+        <v>180858</v>
       </c>
       <c r="C130" t="s">
         <v>1091</v>
@@ -20812,7 +20812,7 @@
         <v>27255</v>
       </c>
       <c r="B132" t="n">
-        <v>149389</v>
+        <v>180859</v>
       </c>
       <c r="C132" t="s">
         <v>1107</v>
@@ -20881,7 +20881,7 @@
         <v>27255</v>
       </c>
       <c r="B133" t="n">
-        <v>149390</v>
+        <v>180860</v>
       </c>
       <c r="C133" t="s">
         <v>1115</v>
@@ -20946,7 +20946,7 @@
         <v>27255</v>
       </c>
       <c r="B134" t="n">
-        <v>149391</v>
+        <v>180861</v>
       </c>
       <c r="C134" t="s">
         <v>1124</v>
@@ -21007,7 +21007,7 @@
         <v>27255</v>
       </c>
       <c r="B135" t="n">
-        <v>149392</v>
+        <v>149331</v>
       </c>
       <c r="C135" t="s">
         <v>1130</v>
@@ -21072,7 +21072,7 @@
         <v>27255</v>
       </c>
       <c r="B136" t="n">
-        <v>149393</v>
+        <v>180862</v>
       </c>
       <c r="C136" t="s">
         <v>1139</v>
@@ -21137,7 +21137,7 @@
         <v>27255</v>
       </c>
       <c r="B137" t="n">
-        <v>149394</v>
+        <v>180863</v>
       </c>
       <c r="C137" t="s">
         <v>1148</v>
@@ -21202,7 +21202,7 @@
         <v>27255</v>
       </c>
       <c r="B138" t="n">
-        <v>149395</v>
+        <v>180864</v>
       </c>
       <c r="C138" t="s">
         <v>1157</v>
@@ -21267,7 +21267,7 @@
         <v>27255</v>
       </c>
       <c r="B139" t="n">
-        <v>149396</v>
+        <v>180865</v>
       </c>
       <c r="C139" t="s">
         <v>1166</v>
@@ -21332,7 +21332,7 @@
         <v>27255</v>
       </c>
       <c r="B140" t="n">
-        <v>149397</v>
+        <v>180866</v>
       </c>
       <c r="C140" t="s">
         <v>1175</v>
@@ -21462,7 +21462,7 @@
         <v>27255</v>
       </c>
       <c r="B142" t="n">
-        <v>149398</v>
+        <v>180867</v>
       </c>
       <c r="C142" t="s">
         <v>1190</v>
@@ -21527,7 +21527,7 @@
         <v>27255</v>
       </c>
       <c r="B143" t="n">
-        <v>149399</v>
+        <v>180868</v>
       </c>
       <c r="C143" t="s">
         <v>1196</v>
@@ -21592,7 +21592,7 @@
         <v>27255</v>
       </c>
       <c r="B144" t="n">
-        <v>149400</v>
+        <v>180869</v>
       </c>
       <c r="C144" t="s">
         <v>1203</v>
@@ -21661,7 +21661,7 @@
         <v>27255</v>
       </c>
       <c r="B145" t="n">
-        <v>149401</v>
+        <v>180870</v>
       </c>
       <c r="C145" t="s">
         <v>1209</v>
@@ -21726,7 +21726,7 @@
         <v>27255</v>
       </c>
       <c r="B146" t="n">
-        <v>149402</v>
+        <v>180871</v>
       </c>
       <c r="C146" t="s">
         <v>1218</v>
@@ -21797,7 +21797,7 @@
         <v>27255</v>
       </c>
       <c r="B147" t="n">
-        <v>149403</v>
+        <v>180872</v>
       </c>
       <c r="C147" t="s">
         <v>1225</v>
@@ -21862,7 +21862,7 @@
         <v>27255</v>
       </c>
       <c r="B148" t="n">
-        <v>149404</v>
+        <v>180873</v>
       </c>
       <c r="C148" t="s">
         <v>1234</v>
@@ -21927,7 +21927,7 @@
         <v>27255</v>
       </c>
       <c r="B149" t="n">
-        <v>149405</v>
+        <v>180874</v>
       </c>
       <c r="C149" t="s">
         <v>1243</v>
@@ -21992,7 +21992,7 @@
         <v>27255</v>
       </c>
       <c r="B150" t="n">
-        <v>149406</v>
+        <v>180875</v>
       </c>
       <c r="C150" t="s">
         <v>1250</v>
@@ -22057,7 +22057,7 @@
         <v>27255</v>
       </c>
       <c r="B151" t="n">
-        <v>149407</v>
+        <v>180876</v>
       </c>
       <c r="C151" t="s">
         <v>1259</v>
@@ -22122,7 +22122,7 @@
         <v>27255</v>
       </c>
       <c r="B152" t="n">
-        <v>149408</v>
+        <v>180877</v>
       </c>
       <c r="C152" t="s">
         <v>1266</v>
@@ -22392,7 +22392,7 @@
         <v>27255</v>
       </c>
       <c r="B156" t="n">
-        <v>149409</v>
+        <v>180878</v>
       </c>
       <c r="C156" t="s">
         <v>1299</v>
@@ -22457,7 +22457,7 @@
         <v>27255</v>
       </c>
       <c r="B157" t="n">
-        <v>149410</v>
+        <v>180879</v>
       </c>
       <c r="C157" t="s">
         <v>1308</v>
@@ -22522,7 +22522,7 @@
         <v>27255</v>
       </c>
       <c r="B158" t="n">
-        <v>149411</v>
+        <v>180880</v>
       </c>
       <c r="C158" t="s">
         <v>1316</v>
@@ -22587,7 +22587,7 @@
         <v>27255</v>
       </c>
       <c r="B159" t="n">
-        <v>149412</v>
+        <v>180881</v>
       </c>
       <c r="C159" t="s">
         <v>1325</v>
@@ -22656,7 +22656,7 @@
         <v>27255</v>
       </c>
       <c r="B160" t="n">
-        <v>149413</v>
+        <v>149343</v>
       </c>
       <c r="C160" t="s">
         <v>1334</v>
@@ -22721,7 +22721,7 @@
         <v>27255</v>
       </c>
       <c r="B161" t="n">
-        <v>149414</v>
+        <v>180882</v>
       </c>
       <c r="C161" t="s">
         <v>1343</v>
@@ -22786,7 +22786,7 @@
         <v>27255</v>
       </c>
       <c r="B162" t="n">
-        <v>149415</v>
+        <v>180883</v>
       </c>
       <c r="C162" t="s">
         <v>1350</v>
@@ -22851,7 +22851,7 @@
         <v>27255</v>
       </c>
       <c r="B163" t="n">
-        <v>149416</v>
+        <v>180884</v>
       </c>
       <c r="C163" t="s">
         <v>1359</v>
@@ -22922,7 +22922,7 @@
         <v>27255</v>
       </c>
       <c r="B164" t="n">
-        <v>149417</v>
+        <v>180885</v>
       </c>
       <c r="C164" t="s">
         <v>1368</v>
@@ -22987,7 +22987,7 @@
         <v>27255</v>
       </c>
       <c r="B165" t="n">
-        <v>149418</v>
+        <v>180886</v>
       </c>
       <c r="C165" t="s">
         <v>1377</v>
@@ -23052,7 +23052,7 @@
         <v>27255</v>
       </c>
       <c r="B166" t="n">
-        <v>149419</v>
+        <v>180887</v>
       </c>
       <c r="C166" t="s">
         <v>1383</v>
@@ -23117,7 +23117,7 @@
         <v>27255</v>
       </c>
       <c r="B167" t="n">
-        <v>149420</v>
+        <v>180888</v>
       </c>
       <c r="C167" t="s">
         <v>1389</v>
@@ -23182,7 +23182,7 @@
         <v>27255</v>
       </c>
       <c r="B168" t="n">
-        <v>149421</v>
+        <v>180889</v>
       </c>
       <c r="C168" t="s">
         <v>1398</v>
@@ -23253,7 +23253,7 @@
         <v>27255</v>
       </c>
       <c r="B169" t="n">
-        <v>149422</v>
+        <v>180890</v>
       </c>
       <c r="C169" t="s">
         <v>1407</v>
@@ -23322,7 +23322,7 @@
         <v>27255</v>
       </c>
       <c r="B170" t="n">
-        <v>149423</v>
+        <v>180891</v>
       </c>
       <c r="C170" t="s">
         <v>1416</v>
@@ -23458,7 +23458,7 @@
         <v>27255</v>
       </c>
       <c r="B172" t="n">
-        <v>149424</v>
+        <v>180892</v>
       </c>
       <c r="C172" t="s">
         <v>1434</v>
@@ -23588,7 +23588,7 @@
         <v>27255</v>
       </c>
       <c r="B174" t="n">
-        <v>149425</v>
+        <v>149349</v>
       </c>
       <c r="C174" t="s">
         <v>1453</v>
@@ -23718,7 +23718,7 @@
         <v>27255</v>
       </c>
       <c r="B176" t="n">
-        <v>149426</v>
+        <v>180893</v>
       </c>
       <c r="C176" t="s">
         <v>1468</v>
@@ -23783,7 +23783,7 @@
         <v>27255</v>
       </c>
       <c r="B177" t="n">
-        <v>149427</v>
+        <v>180894</v>
       </c>
       <c r="C177" t="s">
         <v>1475</v>
@@ -23913,7 +23913,7 @@
         <v>27255</v>
       </c>
       <c r="B179" t="n">
-        <v>149428</v>
+        <v>180895</v>
       </c>
       <c r="C179" t="s">
         <v>1487</v>
@@ -23978,7 +23978,7 @@
         <v>27255</v>
       </c>
       <c r="B180" t="n">
-        <v>149429</v>
+        <v>180896</v>
       </c>
       <c r="C180" t="s">
         <v>1494</v>
@@ -24043,7 +24043,7 @@
         <v>27255</v>
       </c>
       <c r="B181" t="n">
-        <v>149430</v>
+        <v>180897</v>
       </c>
       <c r="C181" t="s">
         <v>1503</v>
@@ -24114,7 +24114,7 @@
         <v>27255</v>
       </c>
       <c r="B182" t="n">
-        <v>149431</v>
+        <v>180898</v>
       </c>
       <c r="C182" t="s">
         <v>1509</v>
@@ -24183,7 +24183,7 @@
         <v>27255</v>
       </c>
       <c r="B183" t="n">
-        <v>149432</v>
+        <v>180899</v>
       </c>
       <c r="C183" t="s">
         <v>1516</v>
@@ -24325,7 +24325,7 @@
         <v>27255</v>
       </c>
       <c r="B185" t="n">
-        <v>149391</v>
+        <v>149331</v>
       </c>
       <c r="C185" t="s">
         <v>1130</v>
@@ -24390,7 +24390,7 @@
         <v>27255</v>
       </c>
       <c r="B186" t="n">
-        <v>149433</v>
+        <v>180900</v>
       </c>
       <c r="C186" t="s">
         <v>1538</v>
@@ -24455,7 +24455,7 @@
         <v>27255</v>
       </c>
       <c r="B187" t="n">
-        <v>149434</v>
+        <v>180901</v>
       </c>
       <c r="C187" t="s">
         <v>1547</v>
@@ -24520,7 +24520,7 @@
         <v>27255</v>
       </c>
       <c r="B188" t="n">
-        <v>149435</v>
+        <v>149339</v>
       </c>
       <c r="C188" t="s">
         <v>1553</v>
@@ -24591,7 +24591,7 @@
         <v>27255</v>
       </c>
       <c r="B189" t="n">
-        <v>149436</v>
+        <v>180902</v>
       </c>
       <c r="C189" t="s">
         <v>1562</v>
@@ -24656,7 +24656,7 @@
         <v>27255</v>
       </c>
       <c r="B190" t="n">
-        <v>149328</v>
+        <v>149332</v>
       </c>
       <c r="C190" t="s">
         <v>444</v>
@@ -24920,7 +24920,7 @@
         <v>27255</v>
       </c>
       <c r="B194" t="n">
-        <v>149437</v>
+        <v>180903</v>
       </c>
       <c r="C194" t="s">
         <v>1597</v>
@@ -24985,7 +24985,7 @@
         <v>27255</v>
       </c>
       <c r="B195" t="n">
-        <v>149438</v>
+        <v>180904</v>
       </c>
       <c r="C195" t="s">
         <v>1607</v>
@@ -25054,7 +25054,7 @@
         <v>27255</v>
       </c>
       <c r="B196" t="n">
-        <v>149439</v>
+        <v>180905</v>
       </c>
       <c r="C196" t="s">
         <v>1616</v>
@@ -25119,7 +25119,7 @@
         <v>27255</v>
       </c>
       <c r="B197" t="n">
-        <v>149440</v>
+        <v>180906</v>
       </c>
       <c r="C197" t="s">
         <v>1622</v>
@@ -25253,7 +25253,7 @@
         <v>27255</v>
       </c>
       <c r="B199" t="n">
-        <v>149441</v>
+        <v>180907</v>
       </c>
       <c r="C199" t="s">
         <v>1640</v>
@@ -25318,7 +25318,7 @@
         <v>27255</v>
       </c>
       <c r="B200" t="n">
-        <v>149442</v>
+        <v>180908</v>
       </c>
       <c r="C200" t="s">
         <v>1649</v>
@@ -25383,7 +25383,7 @@
         <v>27255</v>
       </c>
       <c r="B201" t="n">
-        <v>149443</v>
+        <v>180909</v>
       </c>
       <c r="C201" t="s">
         <v>1658</v>
@@ -25444,7 +25444,7 @@
         <v>27255</v>
       </c>
       <c r="B202" t="n">
-        <v>149444</v>
+        <v>180910</v>
       </c>
       <c r="C202" t="s">
         <v>1665</v>
@@ -25505,7 +25505,7 @@
         <v>27255</v>
       </c>
       <c r="B203" t="n">
-        <v>149445</v>
+        <v>180911</v>
       </c>
       <c r="C203" t="s">
         <v>1670</v>
@@ -25570,7 +25570,7 @@
         <v>27255</v>
       </c>
       <c r="B204" t="n">
-        <v>149446</v>
+        <v>180912</v>
       </c>
       <c r="C204" t="s">
         <v>1679</v>
@@ -25635,7 +25635,7 @@
         <v>27255</v>
       </c>
       <c r="B205" t="n">
-        <v>149447</v>
+        <v>180913</v>
       </c>
       <c r="C205" t="s">
         <v>1687</v>
@@ -25706,7 +25706,7 @@
         <v>27255</v>
       </c>
       <c r="B206" t="n">
-        <v>149448</v>
+        <v>180914</v>
       </c>
       <c r="C206" t="s">
         <v>1693</v>
@@ -25771,7 +25771,7 @@
         <v>27255</v>
       </c>
       <c r="B207" t="n">
-        <v>149449</v>
+        <v>180915</v>
       </c>
       <c r="C207" t="s">
         <v>1699</v>
@@ -25901,7 +25901,7 @@
         <v>27255</v>
       </c>
       <c r="B209" t="n">
-        <v>149450</v>
+        <v>180916</v>
       </c>
       <c r="C209" t="s">
         <v>1714</v>
@@ -25968,7 +25968,7 @@
         <v>27255</v>
       </c>
       <c r="B210" t="n">
-        <v>149451</v>
+        <v>180917</v>
       </c>
       <c r="C210" t="s">
         <v>1721</v>
@@ -26029,7 +26029,7 @@
         <v>27255</v>
       </c>
       <c r="B211" t="n">
-        <v>149452</v>
+        <v>180918</v>
       </c>
       <c r="C211" t="s">
         <v>1728</v>
@@ -26098,7 +26098,7 @@
         <v>27255</v>
       </c>
       <c r="B212" t="n">
-        <v>149453</v>
+        <v>180919</v>
       </c>
       <c r="C212" t="s">
         <v>1736</v>
@@ -26159,7 +26159,7 @@
         <v>27255</v>
       </c>
       <c r="B213" t="n">
-        <v>149454</v>
+        <v>180920</v>
       </c>
       <c r="C213" t="s">
         <v>1744</v>
@@ -26281,7 +26281,7 @@
         <v>27255</v>
       </c>
       <c r="B215" t="n">
-        <v>149455</v>
+        <v>180921</v>
       </c>
       <c r="C215" t="s">
         <v>1755</v>
@@ -26346,7 +26346,7 @@
         <v>27255</v>
       </c>
       <c r="B216" t="n">
-        <v>149456</v>
+        <v>180922</v>
       </c>
       <c r="C216" t="s">
         <v>1765</v>
@@ -26411,7 +26411,7 @@
         <v>27255</v>
       </c>
       <c r="B217" t="n">
-        <v>149457</v>
+        <v>180923</v>
       </c>
       <c r="C217" t="s">
         <v>1773</v>
@@ -26476,7 +26476,7 @@
         <v>27255</v>
       </c>
       <c r="B218" t="n">
-        <v>149458</v>
+        <v>180924</v>
       </c>
       <c r="C218" t="s">
         <v>1780</v>
@@ -26541,7 +26541,7 @@
         <v>27255</v>
       </c>
       <c r="B219" t="n">
-        <v>149434</v>
+        <v>149339</v>
       </c>
       <c r="C219" t="s">
         <v>1553</v>
@@ -26677,7 +26677,7 @@
         <v>27255</v>
       </c>
       <c r="B221" t="n">
-        <v>149459</v>
+        <v>180925</v>
       </c>
       <c r="C221" t="s">
         <v>1806</v>
@@ -26742,7 +26742,7 @@
         <v>27255</v>
       </c>
       <c r="B222" t="n">
-        <v>149460</v>
+        <v>180926</v>
       </c>
       <c r="C222" t="s">
         <v>1815</v>
@@ -26807,7 +26807,7 @@
         <v>27255</v>
       </c>
       <c r="B223" t="n">
-        <v>149461</v>
+        <v>180927</v>
       </c>
       <c r="C223" t="s">
         <v>1824</v>
@@ -26994,7 +26994,7 @@
         <v>27255</v>
       </c>
       <c r="B226" t="n">
-        <v>149462</v>
+        <v>180928</v>
       </c>
       <c r="C226" t="s">
         <v>1842</v>
@@ -27055,7 +27055,7 @@
         <v>27255</v>
       </c>
       <c r="B227" t="n">
-        <v>149463</v>
+        <v>180929</v>
       </c>
       <c r="C227" t="s">
         <v>1848</v>
@@ -27124,7 +27124,7 @@
         <v>27255</v>
       </c>
       <c r="B228" t="n">
-        <v>149464</v>
+        <v>180930</v>
       </c>
       <c r="C228" t="s">
         <v>1857</v>
@@ -27193,7 +27193,7 @@
         <v>27255</v>
       </c>
       <c r="B229" t="n">
-        <v>149465</v>
+        <v>180931</v>
       </c>
       <c r="C229" t="s">
         <v>1864</v>
@@ -27264,7 +27264,7 @@
         <v>27255</v>
       </c>
       <c r="B230" t="n">
-        <v>149466</v>
+        <v>180932</v>
       </c>
       <c r="C230" t="s">
         <v>1870</v>
@@ -27325,7 +27325,7 @@
         <v>27255</v>
       </c>
       <c r="B231" t="n">
-        <v>149467</v>
+        <v>180933</v>
       </c>
       <c r="C231" t="s">
         <v>1876</v>
@@ -27390,7 +27390,7 @@
         <v>27255</v>
       </c>
       <c r="B232" t="n">
-        <v>149468</v>
+        <v>180934</v>
       </c>
       <c r="C232" t="s">
         <v>1883</v>
@@ -27459,7 +27459,7 @@
         <v>27255</v>
       </c>
       <c r="B233" t="n">
-        <v>149469</v>
+        <v>149346</v>
       </c>
       <c r="C233" t="s">
         <v>1892</v>
@@ -27524,7 +27524,7 @@
         <v>27255</v>
       </c>
       <c r="B234" t="n">
-        <v>149470</v>
+        <v>180935</v>
       </c>
       <c r="C234" t="s">
         <v>1901</v>
@@ -27589,7 +27589,7 @@
         <v>27255</v>
       </c>
       <c r="B235" t="n">
-        <v>149471</v>
+        <v>180936</v>
       </c>
       <c r="C235" t="s">
         <v>1908</v>
@@ -27654,7 +27654,7 @@
         <v>27255</v>
       </c>
       <c r="B236" t="n">
-        <v>149472</v>
+        <v>180937</v>
       </c>
       <c r="C236" t="s">
         <v>1914</v>
@@ -27715,7 +27715,7 @@
         <v>27255</v>
       </c>
       <c r="B237" t="n">
-        <v>149473</v>
+        <v>180938</v>
       </c>
       <c r="C237" t="s">
         <v>1920</v>
@@ -27776,7 +27776,7 @@
         <v>27255</v>
       </c>
       <c r="B238" t="n">
-        <v>149412</v>
+        <v>149343</v>
       </c>
       <c r="C238" t="s">
         <v>1334</v>
@@ -27837,7 +27837,7 @@
         <v>27255</v>
       </c>
       <c r="B239" t="n">
-        <v>149474</v>
+        <v>180939</v>
       </c>
       <c r="C239" t="s">
         <v>1929</v>
@@ -27902,7 +27902,7 @@
         <v>27255</v>
       </c>
       <c r="B240" t="n">
-        <v>149475</v>
+        <v>180940</v>
       </c>
       <c r="C240" t="s">
         <v>1938</v>
@@ -27967,7 +27967,7 @@
         <v>27255</v>
       </c>
       <c r="B241" t="n">
-        <v>149476</v>
+        <v>180941</v>
       </c>
       <c r="C241" t="s">
         <v>1948</v>
@@ -28036,7 +28036,7 @@
         <v>27255</v>
       </c>
       <c r="B242" t="n">
-        <v>149477</v>
+        <v>180942</v>
       </c>
       <c r="C242" t="s">
         <v>1956</v>
@@ -28101,7 +28101,7 @@
         <v>27255</v>
       </c>
       <c r="B243" t="n">
-        <v>149478</v>
+        <v>180943</v>
       </c>
       <c r="C243" t="s">
         <v>1963</v>
@@ -28233,7 +28233,7 @@
         <v>27255</v>
       </c>
       <c r="B245" t="n">
-        <v>149479</v>
+        <v>180944</v>
       </c>
       <c r="C245" t="s">
         <v>1974</v>
@@ -28294,7 +28294,7 @@
         <v>27255</v>
       </c>
       <c r="B246" t="n">
-        <v>149480</v>
+        <v>180945</v>
       </c>
       <c r="C246" t="s">
         <v>1980</v>
@@ -28355,7 +28355,7 @@
         <v>27255</v>
       </c>
       <c r="B247" t="n">
-        <v>149481</v>
+        <v>180946</v>
       </c>
       <c r="C247" t="s">
         <v>1985</v>
@@ -28477,7 +28477,7 @@
         <v>27255</v>
       </c>
       <c r="B249" t="n">
-        <v>149482</v>
+        <v>180947</v>
       </c>
       <c r="C249" t="s">
         <v>1998</v>
@@ -28538,7 +28538,7 @@
         <v>27255</v>
       </c>
       <c r="B250" t="n">
-        <v>149483</v>
+        <v>180948</v>
       </c>
       <c r="C250" t="s">
         <v>2004</v>
@@ -28603,7 +28603,7 @@
         <v>27255</v>
       </c>
       <c r="B251" t="n">
-        <v>149484</v>
+        <v>180949</v>
       </c>
       <c r="C251" t="s">
         <v>2010</v>
@@ -28664,7 +28664,7 @@
         <v>27255</v>
       </c>
       <c r="B252" t="n">
-        <v>149485</v>
+        <v>180950</v>
       </c>
       <c r="C252" t="s">
         <v>2018</v>
@@ -28731,7 +28731,7 @@
         <v>27255</v>
       </c>
       <c r="B253" t="n">
-        <v>149486</v>
+        <v>180951</v>
       </c>
       <c r="C253" t="s">
         <v>2024</v>
@@ -28798,7 +28798,7 @@
         <v>27255</v>
       </c>
       <c r="B254" t="n">
-        <v>149487</v>
+        <v>180952</v>
       </c>
       <c r="C254" t="s">
         <v>2031</v>
@@ -28859,7 +28859,7 @@
         <v>27255</v>
       </c>
       <c r="B255" t="n">
-        <v>149488</v>
+        <v>180953</v>
       </c>
       <c r="C255" t="s">
         <v>2039</v>
@@ -28920,7 +28920,7 @@
         <v>27255</v>
       </c>
       <c r="B256" t="n">
-        <v>149468</v>
+        <v>149346</v>
       </c>
       <c r="C256" t="s">
         <v>1892</v>
@@ -29052,7 +29052,7 @@
         <v>27255</v>
       </c>
       <c r="B258" t="n">
-        <v>149489</v>
+        <v>180954</v>
       </c>
       <c r="C258" t="s">
         <v>2059</v>
@@ -29113,7 +29113,7 @@
         <v>27255</v>
       </c>
       <c r="B259" t="n">
-        <v>149490</v>
+        <v>180955</v>
       </c>
       <c r="C259" t="s">
         <v>2065</v>
@@ -29180,7 +29180,7 @@
         <v>27255</v>
       </c>
       <c r="B260" t="n">
-        <v>149491</v>
+        <v>180956</v>
       </c>
       <c r="C260" t="s">
         <v>2072</v>
@@ -29302,7 +29302,7 @@
         <v>27255</v>
       </c>
       <c r="B262" t="n">
-        <v>149492</v>
+        <v>180957</v>
       </c>
       <c r="C262" t="s">
         <v>2084</v>
@@ -29363,7 +29363,7 @@
         <v>27255</v>
       </c>
       <c r="B263" t="n">
-        <v>149424</v>
+        <v>149349</v>
       </c>
       <c r="C263" t="s">
         <v>1453</v>
@@ -29434,7 +29434,7 @@
         <v>27255</v>
       </c>
       <c r="B264" t="n">
-        <v>149493</v>
+        <v>180958</v>
       </c>
       <c r="C264" t="s">
         <v>2097</v>
@@ -29505,7 +29505,7 @@
         <v>27255</v>
       </c>
       <c r="B265" t="n">
-        <v>149494</v>
+        <v>180959</v>
       </c>
       <c r="C265" t="s">
         <v>2103</v>
@@ -29566,7 +29566,7 @@
         <v>27255</v>
       </c>
       <c r="B266" t="n">
-        <v>149495</v>
+        <v>180960</v>
       </c>
       <c r="C266" t="s">
         <v>2110</v>
@@ -29631,7 +29631,7 @@
         <v>27255</v>
       </c>
       <c r="B267" t="n">
-        <v>149496</v>
+        <v>180961</v>
       </c>
       <c r="C267" t="s">
         <v>2116</v>
@@ -29692,7 +29692,7 @@
         <v>27255</v>
       </c>
       <c r="B268" t="n">
-        <v>149497</v>
+        <v>180962</v>
       </c>
       <c r="C268" t="s">
         <v>2123</v>
@@ -29946,7 +29946,7 @@
         <v>27255</v>
       </c>
       <c r="B272" t="n">
-        <v>149498</v>
+        <v>180963</v>
       </c>
       <c r="C272" t="s">
         <v>2148</v>
@@ -30017,7 +30017,7 @@
         <v>27255</v>
       </c>
       <c r="B273" t="n">
-        <v>149499</v>
+        <v>180964</v>
       </c>
       <c r="C273" t="s">
         <v>2154</v>
@@ -30088,7 +30088,7 @@
         <v>27255</v>
       </c>
       <c r="B274" t="n">
-        <v>149500</v>
+        <v>180965</v>
       </c>
       <c r="C274" t="s">
         <v>2160</v>
@@ -30155,7 +30155,7 @@
         <v>27255</v>
       </c>
       <c r="B275" t="n">
-        <v>149501</v>
+        <v>180966</v>
       </c>
       <c r="C275" t="s">
         <v>2167</v>
@@ -30220,7 +30220,7 @@
         <v>27255</v>
       </c>
       <c r="B276" t="n">
-        <v>149502</v>
+        <v>180967</v>
       </c>
       <c r="C276" t="s">
         <v>2172</v>
@@ -30287,7 +30287,7 @@
         <v>27255</v>
       </c>
       <c r="B277" t="n">
-        <v>149503</v>
+        <v>180968</v>
       </c>
       <c r="C277" t="s">
         <v>2178</v>
@@ -30484,7 +30484,7 @@
         <v>27255</v>
       </c>
       <c r="B280" t="n">
-        <v>149504</v>
+        <v>180969</v>
       </c>
       <c r="C280" t="s">
         <v>2198</v>
@@ -30555,7 +30555,7 @@
         <v>27255</v>
       </c>
       <c r="B281" t="n">
-        <v>149505</v>
+        <v>180970</v>
       </c>
       <c r="C281" t="s">
         <v>2203</v>
@@ -30693,7 +30693,7 @@
         <v>27255</v>
       </c>
       <c r="B283" t="n">
-        <v>149506</v>
+        <v>180971</v>
       </c>
       <c r="C283" t="s">
         <v>2216</v>
@@ -30758,7 +30758,7 @@
         <v>27255</v>
       </c>
       <c r="B284" t="n">
-        <v>149507</v>
+        <v>180972</v>
       </c>
       <c r="C284" t="s">
         <v>2222</v>
@@ -30827,7 +30827,7 @@
         <v>27255</v>
       </c>
       <c r="B285" t="n">
-        <v>149508</v>
+        <v>180973</v>
       </c>
       <c r="C285" t="s">
         <v>2232</v>
@@ -31026,7 +31026,7 @@
         <v>27255</v>
       </c>
       <c r="B288" t="n">
-        <v>149509</v>
+        <v>180974</v>
       </c>
       <c r="C288" t="s">
         <v>2250</v>
@@ -31083,7 +31083,7 @@
         <v>27255</v>
       </c>
       <c r="B289" t="n">
-        <v>149510</v>
+        <v>180975</v>
       </c>
       <c r="C289" t="s">
         <v>2256</v>
@@ -31154,7 +31154,7 @@
         <v>27255</v>
       </c>
       <c r="B290" t="n">
-        <v>149511</v>
+        <v>180976</v>
       </c>
       <c r="C290" t="s">
         <v>2260</v>
@@ -31365,7 +31365,7 @@
         <v>27255</v>
       </c>
       <c r="B293" t="n">
-        <v>149512</v>
+        <v>180977</v>
       </c>
       <c r="C293" t="s">
         <v>2285</v>
@@ -31440,7 +31440,7 @@
         <v>27255</v>
       </c>
       <c r="B294" t="n">
-        <v>149513</v>
+        <v>180978</v>
       </c>
       <c r="C294" t="s">
         <v>2294</v>
@@ -31505,7 +31505,7 @@
         <v>27255</v>
       </c>
       <c r="B295" t="n">
-        <v>149514</v>
+        <v>180979</v>
       </c>
       <c r="C295" t="s">
         <v>2303</v>
@@ -31635,7 +31635,7 @@
         <v>27255</v>
       </c>
       <c r="B297" t="n">
-        <v>149515</v>
+        <v>180980</v>
       </c>
       <c r="C297" t="s">
         <v>2321</v>
@@ -31710,7 +31710,7 @@
         <v>27255</v>
       </c>
       <c r="B298" t="n">
-        <v>149516</v>
+        <v>180981</v>
       </c>
       <c r="C298" t="s">
         <v>2329</v>
@@ -31840,7 +31840,7 @@
         <v>27255</v>
       </c>
       <c r="B300" t="n">
-        <v>149517</v>
+        <v>180982</v>
       </c>
       <c r="C300" t="s">
         <v>2347</v>
@@ -31980,7 +31980,7 @@
         <v>27255</v>
       </c>
       <c r="B302" t="n">
-        <v>149518</v>
+        <v>180983</v>
       </c>
       <c r="C302" t="s">
         <v>2362</v>
@@ -32124,7 +32124,7 @@
         <v>27255</v>
       </c>
       <c r="B304" t="n">
-        <v>149519</v>
+        <v>180984</v>
       </c>
       <c r="C304" t="s">
         <v>2376</v>
@@ -32199,7 +32199,7 @@
         <v>27255</v>
       </c>
       <c r="B305" t="n">
-        <v>149520</v>
+        <v>180985</v>
       </c>
       <c r="C305" t="s">
         <v>2384</v>
@@ -32410,7 +32410,7 @@
         <v>27255</v>
       </c>
       <c r="B308" t="n">
-        <v>149521</v>
+        <v>180986</v>
       </c>
       <c r="C308" t="s">
         <v>2411</v>
@@ -32481,7 +32481,7 @@
         <v>27255</v>
       </c>
       <c r="B309" t="n">
-        <v>149522</v>
+        <v>180987</v>
       </c>
       <c r="C309" t="s">
         <v>2418</v>
@@ -32694,7 +32694,7 @@
         <v>27255</v>
       </c>
       <c r="B312" t="n">
-        <v>149523</v>
+        <v>180988</v>
       </c>
       <c r="C312" t="s">
         <v>2444</v>
@@ -32765,7 +32765,7 @@
         <v>27255</v>
       </c>
       <c r="B313" t="n">
-        <v>149524</v>
+        <v>180989</v>
       </c>
       <c r="C313" t="s">
         <v>2453</v>
@@ -32836,7 +32836,7 @@
         <v>27255</v>
       </c>
       <c r="B314" t="n">
-        <v>149525</v>
+        <v>180990</v>
       </c>
       <c r="C314" t="s">
         <v>2462</v>
@@ -32974,7 +32974,7 @@
         <v>27255</v>
       </c>
       <c r="B316" t="n">
-        <v>149526</v>
+        <v>180991</v>
       </c>
       <c r="C316" t="s">
         <v>2481</v>
@@ -33045,7 +33045,7 @@
         <v>27255</v>
       </c>
       <c r="B317" t="n">
-        <v>149527</v>
+        <v>180992</v>
       </c>
       <c r="C317" t="s">
         <v>2488</v>
@@ -33181,7 +33181,7 @@
         <v>27255</v>
       </c>
       <c r="B319" t="n">
-        <v>149528</v>
+        <v>180993</v>
       </c>
       <c r="C319" t="s">
         <v>2504</v>
@@ -33252,7 +33252,7 @@
         <v>27255</v>
       </c>
       <c r="B320" t="n">
-        <v>149529</v>
+        <v>180994</v>
       </c>
       <c r="C320" t="s">
         <v>2513</v>
@@ -33323,7 +33323,7 @@
         <v>27255</v>
       </c>
       <c r="B321" t="n">
-        <v>149530</v>
+        <v>180995</v>
       </c>
       <c r="C321" t="s">
         <v>2523</v>
@@ -33463,7 +33463,7 @@
         <v>27255</v>
       </c>
       <c r="B323" t="n">
-        <v>149531</v>
+        <v>180996</v>
       </c>
       <c r="C323" t="s">
         <v>2540</v>
@@ -33534,7 +33534,7 @@
         <v>27255</v>
       </c>
       <c r="B324" t="n">
-        <v>149532</v>
+        <v>180997</v>
       </c>
       <c r="C324" t="s">
         <v>2547</v>
@@ -33670,7 +33670,7 @@
         <v>27255</v>
       </c>
       <c r="B326" t="n">
-        <v>149533</v>
+        <v>149385</v>
       </c>
       <c r="C326" t="s">
         <v>2563</v>
@@ -33735,7 +33735,7 @@
         <v>27255</v>
       </c>
       <c r="B327" t="n">
-        <v>149534</v>
+        <v>180998</v>
       </c>
       <c r="C327" t="s">
         <v>2570</v>
@@ -33928,7 +33928,7 @@
         <v>27255</v>
       </c>
       <c r="B330" t="n">
-        <v>149535</v>
+        <v>180999</v>
       </c>
       <c r="C330" t="s">
         <v>2589</v>
@@ -33995,7 +33995,7 @@
         <v>27255</v>
       </c>
       <c r="B331" t="n">
-        <v>149536</v>
+        <v>181000</v>
       </c>
       <c r="C331" t="s">
         <v>2595</v>
@@ -34060,7 +34060,7 @@
         <v>27255</v>
       </c>
       <c r="B332" t="n">
-        <v>149537</v>
+        <v>181001</v>
       </c>
       <c r="C332" t="s">
         <v>2601</v>
@@ -34131,7 +34131,7 @@
         <v>27255</v>
       </c>
       <c r="B333" t="n">
-        <v>149538</v>
+        <v>181002</v>
       </c>
       <c r="C333" t="s">
         <v>2610</v>
@@ -34202,7 +34202,7 @@
         <v>27255</v>
       </c>
       <c r="B334" t="n">
-        <v>149539</v>
+        <v>181003</v>
       </c>
       <c r="C334" t="s">
         <v>2617</v>
@@ -34267,7 +34267,7 @@
         <v>27255</v>
       </c>
       <c r="B335" t="n">
-        <v>149540</v>
+        <v>181004</v>
       </c>
       <c r="C335" t="s">
         <v>2625</v>
@@ -34549,7 +34549,7 @@
         <v>27255</v>
       </c>
       <c r="B339" t="n">
-        <v>149541</v>
+        <v>181005</v>
       </c>
       <c r="C339" t="s">
         <v>2658</v>
@@ -34614,7 +34614,7 @@
         <v>27255</v>
       </c>
       <c r="B340" t="n">
-        <v>149542</v>
+        <v>181006</v>
       </c>
       <c r="C340" t="s">
         <v>2666</v>
@@ -34685,7 +34685,7 @@
         <v>27255</v>
       </c>
       <c r="B341" t="n">
-        <v>149543</v>
+        <v>181007</v>
       </c>
       <c r="C341" t="s">
         <v>2673</v>
@@ -34756,7 +34756,7 @@
         <v>27255</v>
       </c>
       <c r="B342" t="n">
-        <v>149544</v>
+        <v>181008</v>
       </c>
       <c r="C342" t="s">
         <v>2680</v>
@@ -34898,7 +34898,7 @@
         <v>27255</v>
       </c>
       <c r="B344" t="n">
-        <v>149545</v>
+        <v>181009</v>
       </c>
       <c r="C344" t="s">
         <v>2693</v>
@@ -34965,7 +34965,7 @@
         <v>27255</v>
       </c>
       <c r="B345" t="n">
-        <v>149546</v>
+        <v>181010</v>
       </c>
       <c r="C345" t="s">
         <v>2700</v>
@@ -35032,7 +35032,7 @@
         <v>27255</v>
       </c>
       <c r="B346" t="n">
-        <v>149547</v>
+        <v>181011</v>
       </c>
       <c r="C346" t="s">
         <v>2707</v>
@@ -35174,7 +35174,7 @@
         <v>27255</v>
       </c>
       <c r="B348" t="n">
-        <v>149548</v>
+        <v>181012</v>
       </c>
       <c r="C348" t="s">
         <v>2721</v>
@@ -35241,7 +35241,7 @@
         <v>27255</v>
       </c>
       <c r="B349" t="n">
-        <v>149549</v>
+        <v>181013</v>
       </c>
       <c r="C349" t="s">
         <v>2727</v>
@@ -35308,7 +35308,7 @@
         <v>27255</v>
       </c>
       <c r="B350" t="n">
-        <v>149550</v>
+        <v>181014</v>
       </c>
       <c r="C350" t="s">
         <v>2732</v>
@@ -35379,7 +35379,7 @@
         <v>27255</v>
       </c>
       <c r="B351" t="n">
-        <v>149551</v>
+        <v>181015</v>
       </c>
       <c r="C351" t="s">
         <v>2740</v>
@@ -35508,7 +35508,7 @@
         <v>27255</v>
       </c>
       <c r="B353" t="n">
-        <v>149552</v>
+        <v>181016</v>
       </c>
       <c r="C353" t="s">
         <v>2751</v>
@@ -35579,7 +35579,7 @@
         <v>27255</v>
       </c>
       <c r="B354" t="n">
-        <v>149553</v>
+        <v>181017</v>
       </c>
       <c r="C354" t="s">
         <v>2759</v>
@@ -35721,7 +35721,7 @@
         <v>27255</v>
       </c>
       <c r="B356" t="n">
-        <v>149554</v>
+        <v>181018</v>
       </c>
       <c r="C356" t="s">
         <v>2772</v>
@@ -35796,7 +35796,7 @@
         <v>27255</v>
       </c>
       <c r="B357" t="n">
-        <v>149555</v>
+        <v>149387</v>
       </c>
       <c r="C357" t="s">
         <v>2782</v>
@@ -35938,7 +35938,7 @@
         <v>27255</v>
       </c>
       <c r="B359" t="n">
-        <v>149556</v>
+        <v>181019</v>
       </c>
       <c r="C359" t="s">
         <v>2793</v>
@@ -36009,7 +36009,7 @@
         <v>27255</v>
       </c>
       <c r="B360" t="n">
-        <v>149557</v>
+        <v>181020</v>
       </c>
       <c r="C360" t="s">
         <v>2800</v>
@@ -36084,7 +36084,7 @@
         <v>27255</v>
       </c>
       <c r="B361" t="n">
-        <v>149558</v>
+        <v>181021</v>
       </c>
       <c r="C361" t="s">
         <v>2808</v>
@@ -36151,7 +36151,7 @@
         <v>27255</v>
       </c>
       <c r="B362" t="n">
-        <v>149559</v>
+        <v>181022</v>
       </c>
       <c r="C362" t="s">
         <v>2814</v>
@@ -36425,7 +36425,7 @@
         <v>27255</v>
       </c>
       <c r="B366" t="n">
-        <v>149560</v>
+        <v>181023</v>
       </c>
       <c r="C366" t="s">
         <v>2842</v>
@@ -36496,7 +36496,7 @@
         <v>27255</v>
       </c>
       <c r="B367" t="n">
-        <v>149561</v>
+        <v>181024</v>
       </c>
       <c r="C367" t="s">
         <v>2849</v>
@@ -36567,7 +36567,7 @@
         <v>27255</v>
       </c>
       <c r="B368" t="n">
-        <v>149562</v>
+        <v>181025</v>
       </c>
       <c r="C368" t="s">
         <v>2855</v>
@@ -36638,7 +36638,7 @@
         <v>27255</v>
       </c>
       <c r="B369" t="n">
-        <v>149563</v>
+        <v>181026</v>
       </c>
       <c r="C369" t="s">
         <v>2861</v>
@@ -36709,7 +36709,7 @@
         <v>27255</v>
       </c>
       <c r="B370" t="n">
-        <v>149564</v>
+        <v>181027</v>
       </c>
       <c r="C370" t="s">
         <v>2868</v>
@@ -36780,7 +36780,7 @@
         <v>27255</v>
       </c>
       <c r="B371" t="n">
-        <v>149532</v>
+        <v>149385</v>
       </c>
       <c r="C371" t="s">
         <v>2563</v>
@@ -36851,7 +36851,7 @@
         <v>27255</v>
       </c>
       <c r="B372" t="n">
-        <v>149565</v>
+        <v>181028</v>
       </c>
       <c r="C372" t="s">
         <v>2883</v>
@@ -36922,7 +36922,7 @@
         <v>27255</v>
       </c>
       <c r="B373" t="n">
-        <v>149566</v>
+        <v>181029</v>
       </c>
       <c r="C373" t="s">
         <v>2891</v>
@@ -36987,7 +36987,7 @@
         <v>27255</v>
       </c>
       <c r="B374" t="n">
-        <v>149567</v>
+        <v>181030</v>
       </c>
       <c r="C374" t="s">
         <v>2897</v>
@@ -37133,7 +37133,7 @@
         <v>27255</v>
       </c>
       <c r="B376" t="n">
-        <v>149568</v>
+        <v>181031</v>
       </c>
       <c r="C376" t="s">
         <v>2913</v>
@@ -37204,7 +37204,7 @@
         <v>27255</v>
       </c>
       <c r="B377" t="n">
-        <v>149569</v>
+        <v>149389</v>
       </c>
       <c r="C377" t="s">
         <v>2920</v>
@@ -37279,7 +37279,7 @@
         <v>27255</v>
       </c>
       <c r="B378" t="n">
-        <v>149554</v>
+        <v>149387</v>
       </c>
       <c r="C378" t="s">
         <v>2782</v>
@@ -37350,7 +37350,7 @@
         <v>27255</v>
       </c>
       <c r="B379" t="n">
-        <v>149570</v>
+        <v>181032</v>
       </c>
       <c r="C379" t="s">
         <v>2935</v>
@@ -37417,7 +37417,7 @@
         <v>27255</v>
       </c>
       <c r="B380" t="n">
-        <v>149571</v>
+        <v>181033</v>
       </c>
       <c r="C380" t="s">
         <v>2941</v>
@@ -37492,7 +37492,7 @@
         <v>27255</v>
       </c>
       <c r="B381" t="n">
-        <v>149572</v>
+        <v>181034</v>
       </c>
       <c r="C381" t="s">
         <v>2951</v>
@@ -37567,7 +37567,7 @@
         <v>27255</v>
       </c>
       <c r="B382" t="n">
-        <v>149573</v>
+        <v>181035</v>
       </c>
       <c r="C382" t="s">
         <v>2958</v>
@@ -37642,7 +37642,7 @@
         <v>27255</v>
       </c>
       <c r="B383" t="n">
-        <v>149574</v>
+        <v>181036</v>
       </c>
       <c r="C383" t="s">
         <v>2966</v>
@@ -37713,7 +37713,7 @@
         <v>27255</v>
       </c>
       <c r="B384" t="n">
-        <v>149575</v>
+        <v>181037</v>
       </c>
       <c r="C384" t="s">
         <v>2973</v>
@@ -37774,7 +37774,7 @@
         <v>27255</v>
       </c>
       <c r="B385" t="n">
-        <v>149576</v>
+        <v>181038</v>
       </c>
       <c r="C385" t="s">
         <v>2980</v>
@@ -37902,7 +37902,7 @@
         <v>27255</v>
       </c>
       <c r="B387" t="n">
-        <v>149577</v>
+        <v>181039</v>
       </c>
       <c r="C387" t="s">
         <v>2993</v>
@@ -37969,7 +37969,7 @@
         <v>27255</v>
       </c>
       <c r="B388" t="n">
-        <v>149578</v>
+        <v>181040</v>
       </c>
       <c r="C388" t="s">
         <v>2999</v>
@@ -38030,7 +38030,7 @@
         <v>27255</v>
       </c>
       <c r="B389" t="n">
-        <v>149579</v>
+        <v>181041</v>
       </c>
       <c r="C389" t="s">
         <v>3005</v>
@@ -38101,7 +38101,7 @@
         <v>27255</v>
       </c>
       <c r="B390" t="n">
-        <v>149580</v>
+        <v>181042</v>
       </c>
       <c r="C390" t="s">
         <v>3011</v>
@@ -38172,7 +38172,7 @@
         <v>27255</v>
       </c>
       <c r="B391" t="n">
-        <v>149581</v>
+        <v>181043</v>
       </c>
       <c r="C391" t="s">
         <v>3018</v>
@@ -38243,7 +38243,7 @@
         <v>27255</v>
       </c>
       <c r="B392" t="n">
-        <v>149568</v>
+        <v>149389</v>
       </c>
       <c r="C392" t="s">
         <v>2920</v>
@@ -38314,7 +38314,7 @@
         <v>27255</v>
       </c>
       <c r="B393" t="n">
-        <v>149582</v>
+        <v>181044</v>
       </c>
       <c r="C393" t="s">
         <v>3029</v>
@@ -38381,7 +38381,7 @@
         <v>27255</v>
       </c>
       <c r="B394" t="n">
-        <v>149583</v>
+        <v>181045</v>
       </c>
       <c r="C394" t="s">
         <v>3035</v>
@@ -38452,7 +38452,7 @@
         <v>27255</v>
       </c>
       <c r="B395" t="n">
-        <v>149584</v>
+        <v>181046</v>
       </c>
       <c r="C395" t="s">
         <v>3042</v>
@@ -38527,7 +38527,7 @@
         <v>27255</v>
       </c>
       <c r="B396" t="n">
-        <v>149585</v>
+        <v>181047</v>
       </c>
       <c r="C396" t="s">
         <v>3051</v>
@@ -38602,7 +38602,7 @@
         <v>27255</v>
       </c>
       <c r="B397" t="n">
-        <v>149586</v>
+        <v>181048</v>
       </c>
       <c r="C397" t="s">
         <v>3058</v>
@@ -38669,7 +38669,7 @@
         <v>27255</v>
       </c>
       <c r="B398" t="n">
-        <v>149532</v>
+        <v>149385</v>
       </c>
       <c r="C398" t="s">
         <v>2563</v>
@@ -38740,7 +38740,7 @@
         <v>27255</v>
       </c>
       <c r="B399" t="n">
-        <v>149587</v>
+        <v>181049</v>
       </c>
       <c r="C399" t="s">
         <v>3070</v>
@@ -38811,7 +38811,7 @@
         <v>27255</v>
       </c>
       <c r="B400" t="n">
-        <v>149588</v>
+        <v>181050</v>
       </c>
       <c r="C400" t="s">
         <v>3077</v>
@@ -38953,7 +38953,7 @@
         <v>27255</v>
       </c>
       <c r="B402" t="n">
-        <v>149589</v>
+        <v>181051</v>
       </c>
       <c r="C402" t="s">
         <v>3090</v>
@@ -39028,7 +39028,7 @@
         <v>27255</v>
       </c>
       <c r="B403" t="n">
-        <v>149590</v>
+        <v>181052</v>
       </c>
       <c r="C403" t="s">
         <v>3100</v>
@@ -39174,7 +39174,7 @@
         <v>27255</v>
       </c>
       <c r="B405" t="n">
-        <v>149591</v>
+        <v>181053</v>
       </c>
       <c r="C405" t="s">
         <v>3115</v>
@@ -39249,7 +39249,7 @@
         <v>27255</v>
       </c>
       <c r="B406" t="n">
-        <v>149592</v>
+        <v>181054</v>
       </c>
       <c r="C406" t="s">
         <v>3125</v>
@@ -39545,7 +39545,7 @@
         <v>27255</v>
       </c>
       <c r="B410" t="n">
-        <v>149593</v>
+        <v>181055</v>
       </c>
       <c r="C410" t="s">
         <v>3154</v>
@@ -39616,7 +39616,7 @@
         <v>27255</v>
       </c>
       <c r="B411" t="n">
-        <v>149594</v>
+        <v>181056</v>
       </c>
       <c r="C411" t="s">
         <v>3160</v>
@@ -39687,7 +39687,7 @@
         <v>27255</v>
       </c>
       <c r="B412" t="n">
-        <v>149595</v>
+        <v>181057</v>
       </c>
       <c r="C412" t="s">
         <v>3167</v>
@@ -39754,7 +39754,7 @@
         <v>27255</v>
       </c>
       <c r="B413" t="n">
-        <v>149596</v>
+        <v>181058</v>
       </c>
       <c r="C413" t="s">
         <v>3173</v>
@@ -39825,7 +39825,7 @@
         <v>27255</v>
       </c>
       <c r="B414" t="n">
-        <v>149597</v>
+        <v>181059</v>
       </c>
       <c r="C414" t="s">
         <v>3183</v>
@@ -39896,7 +39896,7 @@
         <v>27255</v>
       </c>
       <c r="B415" t="n">
-        <v>149598</v>
+        <v>181060</v>
       </c>
       <c r="C415" t="s">
         <v>3190</v>
@@ -39967,7 +39967,7 @@
         <v>27255</v>
       </c>
       <c r="B416" t="n">
-        <v>149599</v>
+        <v>149396</v>
       </c>
       <c r="C416" t="s">
         <v>3200</v>
@@ -40032,7 +40032,7 @@
         <v>27255</v>
       </c>
       <c r="B417" t="n">
-        <v>149600</v>
+        <v>181061</v>
       </c>
       <c r="C417" t="s">
         <v>3210</v>
@@ -40107,7 +40107,7 @@
         <v>27255</v>
       </c>
       <c r="B418" t="n">
-        <v>149601</v>
+        <v>181062</v>
       </c>
       <c r="C418" t="s">
         <v>3217</v>
@@ -40178,7 +40178,7 @@
         <v>27255</v>
       </c>
       <c r="B419" t="n">
-        <v>149602</v>
+        <v>181063</v>
       </c>
       <c r="C419" t="s">
         <v>3224</v>
@@ -40249,7 +40249,7 @@
         <v>27255</v>
       </c>
       <c r="B420" t="n">
-        <v>149603</v>
+        <v>181064</v>
       </c>
       <c r="C420" t="s">
         <v>3231</v>
@@ -40324,7 +40324,7 @@
         <v>27255</v>
       </c>
       <c r="B421" t="n">
-        <v>149604</v>
+        <v>181065</v>
       </c>
       <c r="C421" t="s">
         <v>3241</v>
@@ -40389,7 +40389,7 @@
         <v>27255</v>
       </c>
       <c r="B422" t="n">
-        <v>149605</v>
+        <v>181066</v>
       </c>
       <c r="C422" t="s">
         <v>3250</v>
@@ -40450,7 +40450,7 @@
         <v>27255</v>
       </c>
       <c r="B423" t="n">
-        <v>149606</v>
+        <v>181067</v>
       </c>
       <c r="C423" t="s">
         <v>3258</v>
@@ -40521,7 +40521,7 @@
         <v>27255</v>
       </c>
       <c r="B424" t="n">
-        <v>149607</v>
+        <v>181068</v>
       </c>
       <c r="C424" t="s">
         <v>3265</v>
@@ -40592,7 +40592,7 @@
         <v>27255</v>
       </c>
       <c r="B425" t="n">
-        <v>149608</v>
+        <v>181069</v>
       </c>
       <c r="C425" t="s">
         <v>3273</v>
@@ -40663,7 +40663,7 @@
         <v>27255</v>
       </c>
       <c r="B426" t="n">
-        <v>149609</v>
+        <v>181070</v>
       </c>
       <c r="C426" t="s">
         <v>3282</v>
@@ -40738,7 +40738,7 @@
         <v>27255</v>
       </c>
       <c r="B427" t="n">
-        <v>149610</v>
+        <v>181071</v>
       </c>
       <c r="C427" t="s">
         <v>3290</v>
@@ -40809,7 +40809,7 @@
         <v>27255</v>
       </c>
       <c r="B428" t="n">
-        <v>149611</v>
+        <v>181072</v>
       </c>
       <c r="C428" t="s">
         <v>3297</v>
@@ -40880,7 +40880,7 @@
         <v>27255</v>
       </c>
       <c r="B429" t="n">
-        <v>149612</v>
+        <v>181073</v>
       </c>
       <c r="C429" t="s">
         <v>3306</v>
@@ -40955,7 +40955,7 @@
         <v>27255</v>
       </c>
       <c r="B430" t="n">
-        <v>149613</v>
+        <v>181074</v>
       </c>
       <c r="C430" t="s">
         <v>3314</v>
@@ -41030,7 +41030,7 @@
         <v>27255</v>
       </c>
       <c r="B431" t="n">
-        <v>149614</v>
+        <v>181075</v>
       </c>
       <c r="C431" t="s">
         <v>3321</v>
@@ -41105,7 +41105,7 @@
         <v>27255</v>
       </c>
       <c r="B432" t="n">
-        <v>149615</v>
+        <v>181076</v>
       </c>
       <c r="C432" t="s">
         <v>3331</v>
@@ -41180,7 +41180,7 @@
         <v>27255</v>
       </c>
       <c r="B433" t="n">
-        <v>149616</v>
+        <v>181077</v>
       </c>
       <c r="C433" t="s">
         <v>3339</v>
@@ -41255,7 +41255,7 @@
         <v>27255</v>
       </c>
       <c r="B434" t="n">
-        <v>149617</v>
+        <v>181078</v>
       </c>
       <c r="C434" t="s">
         <v>3347</v>
@@ -41330,7 +41330,7 @@
         <v>27255</v>
       </c>
       <c r="B435" t="n">
-        <v>149618</v>
+        <v>181079</v>
       </c>
       <c r="C435" t="s">
         <v>3357</v>
@@ -41405,7 +41405,7 @@
         <v>27255</v>
       </c>
       <c r="B436" t="n">
-        <v>149619</v>
+        <v>181080</v>
       </c>
       <c r="C436" t="s">
         <v>3366</v>
@@ -41472,7 +41472,7 @@
         <v>27255</v>
       </c>
       <c r="B437" t="n">
-        <v>149620</v>
+        <v>181081</v>
       </c>
       <c r="C437" t="s">
         <v>3373</v>
@@ -41547,7 +41547,7 @@
         <v>27255</v>
       </c>
       <c r="B438" t="n">
-        <v>149621</v>
+        <v>181082</v>
       </c>
       <c r="C438" t="s">
         <v>3382</v>
@@ -41622,7 +41622,7 @@
         <v>27255</v>
       </c>
       <c r="B439" t="n">
-        <v>149622</v>
+        <v>181083</v>
       </c>
       <c r="C439" t="s">
         <v>3391</v>
@@ -41697,7 +41697,7 @@
         <v>27255</v>
       </c>
       <c r="B440" t="n">
-        <v>149623</v>
+        <v>181084</v>
       </c>
       <c r="C440" t="s">
         <v>3398</v>
@@ -41772,7 +41772,7 @@
         <v>27255</v>
       </c>
       <c r="B441" t="n">
-        <v>149624</v>
+        <v>181085</v>
       </c>
       <c r="C441" t="s">
         <v>3408</v>
@@ -41847,7 +41847,7 @@
         <v>27255</v>
       </c>
       <c r="B442" t="n">
-        <v>149625</v>
+        <v>181086</v>
       </c>
       <c r="C442" t="s">
         <v>3415</v>
@@ -41922,7 +41922,7 @@
         <v>27255</v>
       </c>
       <c r="B443" t="n">
-        <v>149626</v>
+        <v>181087</v>
       </c>
       <c r="C443" t="s">
         <v>3423</v>
@@ -41997,7 +41997,7 @@
         <v>27255</v>
       </c>
       <c r="B444" t="n">
-        <v>149627</v>
+        <v>181088</v>
       </c>
       <c r="C444" t="s">
         <v>3430</v>
@@ -42072,7 +42072,7 @@
         <v>27255</v>
       </c>
       <c r="B445" t="n">
-        <v>149628</v>
+        <v>181089</v>
       </c>
       <c r="C445" t="s">
         <v>3437</v>
@@ -42147,7 +42147,7 @@
         <v>27255</v>
       </c>
       <c r="B446" t="n">
-        <v>149629</v>
+        <v>181090</v>
       </c>
       <c r="C446" t="s">
         <v>3444</v>
@@ -42222,7 +42222,7 @@
         <v>27255</v>
       </c>
       <c r="B447" t="n">
-        <v>149598</v>
+        <v>149396</v>
       </c>
       <c r="C447" t="s">
         <v>3200</v>
@@ -42297,7 +42297,7 @@
         <v>27255</v>
       </c>
       <c r="B448" t="n">
-        <v>149630</v>
+        <v>181091</v>
       </c>
       <c r="C448" t="s">
         <v>3461</v>
@@ -42368,7 +42368,7 @@
         <v>27255</v>
       </c>
       <c r="B449" t="n">
-        <v>149631</v>
+        <v>181092</v>
       </c>
       <c r="C449" t="s">
         <v>3468</v>
@@ -42443,7 +42443,7 @@
         <v>27255</v>
       </c>
       <c r="B450" t="n">
-        <v>149632</v>
+        <v>181093</v>
       </c>
       <c r="C450" t="s">
         <v>3477</v>
@@ -42514,7 +42514,7 @@
         <v>27255</v>
       </c>
       <c r="B451" t="n">
-        <v>149633</v>
+        <v>181094</v>
       </c>
       <c r="C451" t="s">
         <v>3483</v>
@@ -42585,7 +42585,7 @@
         <v>27255</v>
       </c>
       <c r="B452" t="n">
-        <v>149634</v>
+        <v>181095</v>
       </c>
       <c r="C452" t="s">
         <v>3490</v>
@@ -42660,7 +42660,7 @@
         <v>27255</v>
       </c>
       <c r="B453" t="n">
-        <v>149635</v>
+        <v>181096</v>
       </c>
       <c r="C453" t="s">
         <v>3498</v>
@@ -42721,7 +42721,7 @@
         <v>27255</v>
       </c>
       <c r="B454" t="n">
-        <v>149636</v>
+        <v>181097</v>
       </c>
       <c r="C454" t="s">
         <v>3504</v>
@@ -42792,7 +42792,7 @@
         <v>27255</v>
       </c>
       <c r="B455" t="n">
-        <v>149637</v>
+        <v>181098</v>
       </c>
       <c r="C455" t="s">
         <v>3511</v>
@@ -42867,7 +42867,7 @@
         <v>27255</v>
       </c>
       <c r="B456" t="n">
-        <v>149638</v>
+        <v>181099</v>
       </c>
       <c r="C456" t="s">
         <v>3520</v>
@@ -42938,7 +42938,7 @@
         <v>27255</v>
       </c>
       <c r="B457" t="n">
-        <v>149639</v>
+        <v>181100</v>
       </c>
       <c r="C457" t="s">
         <v>3527</v>
@@ -43013,7 +43013,7 @@
         <v>27255</v>
       </c>
       <c r="B458" t="n">
-        <v>149640</v>
+        <v>181101</v>
       </c>
       <c r="C458" t="s">
         <v>3534</v>
@@ -43088,7 +43088,7 @@
         <v>27255</v>
       </c>
       <c r="B459" t="n">
-        <v>149641</v>
+        <v>181102</v>
       </c>
       <c r="C459" t="s">
         <v>3544</v>
@@ -43163,7 +43163,7 @@
         <v>27255</v>
       </c>
       <c r="B460" t="n">
-        <v>149642</v>
+        <v>181103</v>
       </c>
       <c r="C460" t="s">
         <v>3551</v>
@@ -43230,7 +43230,7 @@
         <v>27255</v>
       </c>
       <c r="B461" t="n">
-        <v>149643</v>
+        <v>181104</v>
       </c>
       <c r="C461" t="s">
         <v>3561</v>
@@ -43305,7 +43305,7 @@
         <v>27255</v>
       </c>
       <c r="B462" t="n">
-        <v>149644</v>
+        <v>181105</v>
       </c>
       <c r="C462" t="s">
         <v>3570</v>
@@ -43376,7 +43376,7 @@
         <v>27255</v>
       </c>
       <c r="B463" t="n">
-        <v>149645</v>
+        <v>181106</v>
       </c>
       <c r="C463" t="s">
         <v>3575</v>
@@ -43451,7 +43451,7 @@
         <v>27255</v>
       </c>
       <c r="B464" t="n">
-        <v>149646</v>
+        <v>181107</v>
       </c>
       <c r="C464" t="s">
         <v>3585</v>
@@ -43526,7 +43526,7 @@
         <v>27255</v>
       </c>
       <c r="B465" t="n">
-        <v>149647</v>
+        <v>181108</v>
       </c>
       <c r="C465" t="s">
         <v>3592</v>
@@ -43601,7 +43601,7 @@
         <v>27255</v>
       </c>
       <c r="B466" t="n">
-        <v>149648</v>
+        <v>181109</v>
       </c>
       <c r="C466" t="s">
         <v>3599</v>
@@ -43672,7 +43672,7 @@
         <v>27255</v>
       </c>
       <c r="B467" t="n">
-        <v>149649</v>
+        <v>181110</v>
       </c>
       <c r="C467" t="s">
         <v>3606</v>
@@ -43747,7 +43747,7 @@
         <v>27255</v>
       </c>
       <c r="B468" t="n">
-        <v>149650</v>
+        <v>181111</v>
       </c>
       <c r="C468" t="s">
         <v>3616</v>
@@ -43822,7 +43822,7 @@
         <v>27255</v>
       </c>
       <c r="B469" t="n">
-        <v>149651</v>
+        <v>181112</v>
       </c>
       <c r="C469" t="s">
         <v>3622</v>
@@ -43897,7 +43897,7 @@
         <v>27255</v>
       </c>
       <c r="B470" t="n">
-        <v>149652</v>
+        <v>181113</v>
       </c>
       <c r="C470" t="s">
         <v>3629</v>
@@ -43972,7 +43972,7 @@
         <v>27255</v>
       </c>
       <c r="B471" t="n">
-        <v>149653</v>
+        <v>181114</v>
       </c>
       <c r="C471" t="s">
         <v>3635</v>
@@ -44047,7 +44047,7 @@
         <v>27255</v>
       </c>
       <c r="B472" t="n">
-        <v>149654</v>
+        <v>181115</v>
       </c>
       <c r="C472" t="s">
         <v>3643</v>
@@ -44122,7 +44122,7 @@
         <v>27255</v>
       </c>
       <c r="B473" t="n">
-        <v>149655</v>
+        <v>181116</v>
       </c>
       <c r="C473" t="s">
         <v>3650</v>
@@ -44197,7 +44197,7 @@
         <v>27255</v>
       </c>
       <c r="B474" t="n">
-        <v>149656</v>
+        <v>181117</v>
       </c>
       <c r="C474" t="s">
         <v>3658</v>
@@ -44272,7 +44272,7 @@
         <v>27255</v>
       </c>
       <c r="B475" t="n">
-        <v>149657</v>
+        <v>181118</v>
       </c>
       <c r="C475" t="s">
         <v>3665</v>
@@ -44337,7 +44337,7 @@
         <v>27255</v>
       </c>
       <c r="B476" t="n">
-        <v>149658</v>
+        <v>181119</v>
       </c>
       <c r="C476" t="s">
         <v>3673</v>
@@ -44412,7 +44412,7 @@
         <v>27255</v>
       </c>
       <c r="B477" t="n">
-        <v>149659</v>
+        <v>181120</v>
       </c>
       <c r="C477" t="s">
         <v>3680</v>
@@ -44483,7 +44483,7 @@
         <v>27255</v>
       </c>
       <c r="B478" t="n">
-        <v>149660</v>
+        <v>181121</v>
       </c>
       <c r="C478" t="s">
         <v>3686</v>
@@ -44552,7 +44552,7 @@
         <v>27255</v>
       </c>
       <c r="B479" t="n">
-        <v>149661</v>
+        <v>181122</v>
       </c>
       <c r="C479" t="s">
         <v>3692</v>
@@ -44623,7 +44623,7 @@
         <v>27255</v>
       </c>
       <c r="B480" t="n">
-        <v>149662</v>
+        <v>181123</v>
       </c>
       <c r="C480" t="s">
         <v>3699</v>
@@ -44694,7 +44694,7 @@
         <v>27255</v>
       </c>
       <c r="B481" t="n">
-        <v>149663</v>
+        <v>181124</v>
       </c>
       <c r="C481" t="s">
         <v>3705</v>
@@ -44755,7 +44755,7 @@
         <v>27255</v>
       </c>
       <c r="B482" t="n">
-        <v>149664</v>
+        <v>181125</v>
       </c>
       <c r="C482" t="s">
         <v>3711</v>
@@ -44826,7 +44826,7 @@
         <v>27255</v>
       </c>
       <c r="B483" t="n">
-        <v>149665</v>
+        <v>181126</v>
       </c>
       <c r="C483" t="s">
         <v>3718</v>
@@ -44897,7 +44897,7 @@
         <v>27255</v>
       </c>
       <c r="B484" t="n">
-        <v>149666</v>
+        <v>181127</v>
       </c>
       <c r="C484" t="s">
         <v>3724</v>
@@ -44968,7 +44968,7 @@
         <v>27255</v>
       </c>
       <c r="B485" t="n">
-        <v>149667</v>
+        <v>181128</v>
       </c>
       <c r="C485" t="s">
         <v>3729</v>
@@ -45039,7 +45039,7 @@
         <v>27255</v>
       </c>
       <c r="B486" t="n">
-        <v>149668</v>
+        <v>181129</v>
       </c>
       <c r="C486" t="s">
         <v>3737</v>
@@ -45110,7 +45110,7 @@
         <v>27255</v>
       </c>
       <c r="B487" t="n">
-        <v>149669</v>
+        <v>181130</v>
       </c>
       <c r="C487" t="s">
         <v>3744</v>
@@ -45177,7 +45177,7 @@
         <v>27255</v>
       </c>
       <c r="B488" t="n">
-        <v>149670</v>
+        <v>181131</v>
       </c>
       <c r="C488" t="s">
         <v>3751</v>
@@ -45248,7 +45248,7 @@
         <v>27255</v>
       </c>
       <c r="B489" t="n">
-        <v>149671</v>
+        <v>181132</v>
       </c>
       <c r="C489" t="s">
         <v>3759</v>
@@ -45319,7 +45319,7 @@
         <v>27255</v>
       </c>
       <c r="B490" t="n">
-        <v>149672</v>
+        <v>181133</v>
       </c>
       <c r="C490" t="s">
         <v>3766</v>
@@ -45380,7 +45380,7 @@
         <v>27255</v>
       </c>
       <c r="B491" t="n">
-        <v>149673</v>
+        <v>181134</v>
       </c>
       <c r="C491" t="s">
         <v>3772</v>
@@ -45447,7 +45447,7 @@
         <v>27255</v>
       </c>
       <c r="B492" t="n">
-        <v>149674</v>
+        <v>181135</v>
       </c>
       <c r="C492" t="s">
         <v>3779</v>
@@ -45518,7 +45518,7 @@
         <v>27255</v>
       </c>
       <c r="B493" t="n">
-        <v>149675</v>
+        <v>181136</v>
       </c>
       <c r="C493" t="s">
         <v>3786</v>
@@ -45593,7 +45593,7 @@
         <v>27255</v>
       </c>
       <c r="B494" t="n">
-        <v>149676</v>
+        <v>181137</v>
       </c>
       <c r="C494" t="s">
         <v>3796</v>
@@ -45664,7 +45664,7 @@
         <v>27255</v>
       </c>
       <c r="B495" t="n">
-        <v>149677</v>
+        <v>181138</v>
       </c>
       <c r="C495" t="s">
         <v>3804</v>
@@ -45735,7 +45735,7 @@
         <v>27255</v>
       </c>
       <c r="B496" t="n">
-        <v>149678</v>
+        <v>181139</v>
       </c>
       <c r="C496" t="s">
         <v>3812</v>
@@ -45804,7 +45804,7 @@
         <v>27255</v>
       </c>
       <c r="B497" t="n">
-        <v>149679</v>
+        <v>181140</v>
       </c>
       <c r="C497" t="s">
         <v>3819</v>
@@ -45875,7 +45875,7 @@
         <v>27255</v>
       </c>
       <c r="B498" t="n">
-        <v>149680</v>
+        <v>181141</v>
       </c>
       <c r="C498" t="s">
         <v>3827</v>
@@ -45937,7 +45937,7 @@
         <v>27255</v>
       </c>
       <c r="B499" t="n">
-        <v>149681</v>
+        <v>181142</v>
       </c>
       <c r="C499" t="s">
         <v>3832</v>
@@ -46008,7 +46008,7 @@
         <v>27255</v>
       </c>
       <c r="B500" t="n">
-        <v>149682</v>
+        <v>181143</v>
       </c>
       <c r="C500" t="s">
         <v>3839</v>
@@ -46081,7 +46081,7 @@
         <v>27255</v>
       </c>
       <c r="B501" t="n">
-        <v>149683</v>
+        <v>181144</v>
       </c>
       <c r="C501" t="s">
         <v>3849</v>
@@ -46152,7 +46152,7 @@
         <v>27255</v>
       </c>
       <c r="B502" t="n">
-        <v>149684</v>
+        <v>181145</v>
       </c>
       <c r="C502" t="s">
         <v>3857</v>
@@ -46282,7 +46282,7 @@
         <v>27255</v>
       </c>
       <c r="B504" t="n">
-        <v>149685</v>
+        <v>181146</v>
       </c>
       <c r="C504" t="s">
         <v>3873</v>
@@ -46403,7 +46403,7 @@
         <v>27255</v>
       </c>
       <c r="B506" t="n">
-        <v>149686</v>
+        <v>181147</v>
       </c>
       <c r="C506" t="s">
         <v>3882</v>
